--- a/moyusi/Keywords/Web/登陆.xlsx
+++ b/moyusi/Keywords/Web/登陆.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15295171800</v>
+        <v>18566251780</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>

--- a/moyusi/Keywords/Web/登陆.xlsx
+++ b/moyusi/Keywords/Web/登陆.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>18566251780</v>
+        <v>18037022231</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>123123</v>
+        <v>123456</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>

--- a/moyusi/Keywords/Web/登陆.xlsx
+++ b/moyusi/Keywords/Web/登陆.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
